--- a/medicine/Hématologie/Corps_de_Howell-Jolly/Corps_de_Howell-Jolly.xlsx
+++ b/medicine/Hématologie/Corps_de_Howell-Jolly/Corps_de_Howell-Jolly.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un corps de Howell-Jolly est un reste de noyaux pycnotiques que l'on retrouve dans le sang lors d'une asplénie (fonctionnelle ou anatomique) car la rate filtre normalement ce type de globule rouge. Il est possible d'en retrouver également en cas de réticulocytose intense et aussi dans les anémies mégaloblastiques[1],[2].
-Il doit son nom à l'hématologiste et histologiste français Justin Jolly (1870-1953) et au physiologiste américain William Henry Howell (en), à l'origine de sa découverte[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un corps de Howell-Jolly est un reste de noyaux pycnotiques que l'on retrouve dans le sang lors d'une asplénie (fonctionnelle ou anatomique) car la rate filtre normalement ce type de globule rouge. Il est possible d'en retrouver également en cas de réticulocytose intense et aussi dans les anémies mégaloblastiques,.
+Il doit son nom à l'hématologiste et histologiste français Justin Jolly (1870-1953) et au physiologiste américain William Henry Howell (en), à l'origine de sa découverte,.
 </t>
         </is>
       </c>
